--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H2">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I2">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J2">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N2">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O2">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P2">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q2">
-        <v>433.0343215179021</v>
+        <v>533.2932923249494</v>
       </c>
       <c r="R2">
-        <v>433.0343215179021</v>
+        <v>4799.639630924544</v>
       </c>
       <c r="S2">
-        <v>0.04099805569122096</v>
+        <v>0.04377164525688317</v>
       </c>
       <c r="T2">
-        <v>0.04099805569122096</v>
+        <v>0.0470694699977085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H3">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I3">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J3">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N3">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O3">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P3">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q3">
-        <v>0.9848571733019893</v>
+        <v>1.337426973520667</v>
       </c>
       <c r="R3">
-        <v>0.9848571733019893</v>
+        <v>12.036842761686</v>
       </c>
       <c r="S3">
-        <v>9.324256123025151E-05</v>
+        <v>0.0001097733271437112</v>
       </c>
       <c r="T3">
-        <v>9.324256123025151E-05</v>
+        <v>0.0001180438226211532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H4">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I4">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J4">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N4">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O4">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P4">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q4">
-        <v>4.522992466446008</v>
+        <v>17.999838504757</v>
       </c>
       <c r="R4">
-        <v>4.522992466446008</v>
+        <v>161.998546542813</v>
       </c>
       <c r="S4">
-        <v>0.0004282198611424851</v>
+        <v>0.00147739069110836</v>
       </c>
       <c r="T4">
-        <v>0.0004282198611424851</v>
+        <v>0.001588699634247436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H5">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I5">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J5">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N5">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O5">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P5">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q5">
-        <v>1.713283618237184</v>
+        <v>4.15061292648</v>
       </c>
       <c r="R5">
-        <v>1.713283618237184</v>
+        <v>37.35551633832</v>
       </c>
       <c r="S5">
-        <v>0.000162207228630585</v>
+        <v>0.0003406739954002918</v>
       </c>
       <c r="T5">
-        <v>0.000162207228630585</v>
+        <v>0.0003663409111397734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.95748287492119</v>
+        <v>3.626383</v>
       </c>
       <c r="H6">
-        <v>2.95748287492119</v>
+        <v>10.879149</v>
       </c>
       <c r="I6">
-        <v>0.04361340230937333</v>
+        <v>0.04794321320295086</v>
       </c>
       <c r="J6">
-        <v>0.04361340230937333</v>
+        <v>0.05075107175358264</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N6">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O6">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P6">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q6">
-        <v>20.40297791585918</v>
+        <v>27.3365580782605</v>
       </c>
       <c r="R6">
-        <v>20.40297791585918</v>
+        <v>164.019348469563</v>
       </c>
       <c r="S6">
-        <v>0.001931676967149046</v>
+        <v>0.002243729932415321</v>
       </c>
       <c r="T6">
-        <v>0.001931676967149046</v>
+        <v>0.001608517387865773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H7">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I7">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J7">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N7">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O7">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P7">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q7">
-        <v>3429.273109262245</v>
+        <v>3948.839557233038</v>
       </c>
       <c r="R7">
-        <v>3429.273109262245</v>
+        <v>35539.55601509735</v>
       </c>
       <c r="S7">
-        <v>0.3246706390872708</v>
+        <v>0.3241128414010351</v>
       </c>
       <c r="T7">
-        <v>0.3246706390872708</v>
+        <v>0.3485320136966766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H8">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I8">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J8">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N8">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O8">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P8">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q8">
-        <v>7.799252976138325</v>
+        <v>9.903152006515111</v>
       </c>
       <c r="R8">
-        <v>7.799252976138325</v>
+        <v>89.128368058636</v>
       </c>
       <c r="S8">
-        <v>0.0007384038446301787</v>
+        <v>0.0008128308808542846</v>
       </c>
       <c r="T8">
-        <v>0.0007384038446301787</v>
+        <v>0.0008740708404961168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H9">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I9">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J9">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N9">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O9">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P9">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q9">
-        <v>35.81835357578646</v>
+        <v>133.2821457429487</v>
       </c>
       <c r="R9">
-        <v>35.81835357578646</v>
+        <v>1199.539311686538</v>
       </c>
       <c r="S9">
-        <v>0.003391146571293721</v>
+        <v>0.01093953156077155</v>
       </c>
       <c r="T9">
-        <v>0.003391146571293721</v>
+        <v>0.01176373311002629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H10">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I10">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J10">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N10">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O10">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P10">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q10">
-        <v>13.56778700580989</v>
+        <v>30.73375335248</v>
       </c>
       <c r="R10">
-        <v>13.56778700580989</v>
+        <v>276.6037801723199</v>
       </c>
       <c r="S10">
-        <v>0.001284546881459653</v>
+        <v>0.002522564916000467</v>
       </c>
       <c r="T10">
-        <v>0.001284546881459653</v>
+        <v>0.002712618932510531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.420814448426</v>
+        <v>26.85202466666667</v>
       </c>
       <c r="H11">
-        <v>23.420814448426</v>
+        <v>80.556074</v>
       </c>
       <c r="I11">
-        <v>0.3453820178010689</v>
+        <v>0.3550017589220155</v>
       </c>
       <c r="J11">
-        <v>0.3453820178010689</v>
+        <v>0.3757929128244233</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N11">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O11">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P11">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q11">
-        <v>161.5746836658877</v>
+        <v>202.4171004053397</v>
       </c>
       <c r="R11">
-        <v>161.5746836658877</v>
+        <v>1214.502602432038</v>
       </c>
       <c r="S11">
-        <v>0.01529728141641452</v>
+        <v>0.0166139901633541</v>
       </c>
       <c r="T11">
-        <v>0.01529728141641452</v>
+        <v>0.0119104762447138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H12">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I12">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J12">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N12">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O12">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P12">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q12">
-        <v>1854.124472572084</v>
+        <v>1939.59182611055</v>
       </c>
       <c r="R12">
-        <v>1854.124472572084</v>
+        <v>17456.32643499495</v>
       </c>
       <c r="S12">
-        <v>0.1755415093161927</v>
+        <v>0.159197812118608</v>
       </c>
       <c r="T12">
-        <v>0.1755415093161927</v>
+        <v>0.1711920261905008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H13">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I13">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J13">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N13">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O13">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P13">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q13">
-        <v>4.216866184201277</v>
+        <v>4.864232239920667</v>
       </c>
       <c r="R13">
-        <v>4.216866184201277</v>
+        <v>43.778090159286</v>
       </c>
       <c r="S13">
-        <v>0.0003992369797763551</v>
+        <v>0.0003992464392804827</v>
       </c>
       <c r="T13">
-        <v>0.0003992369797763551</v>
+        <v>0.0004293262952561626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H14">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I14">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J14">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N14">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O14">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P14">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q14">
-        <v>19.36611165577096</v>
+        <v>65.465551765957</v>
       </c>
       <c r="R14">
-        <v>19.36611165577096</v>
+        <v>589.189965893613</v>
       </c>
       <c r="S14">
-        <v>0.001833510381815954</v>
+        <v>0.00537328136259315</v>
       </c>
       <c r="T14">
-        <v>0.001833510381815954</v>
+        <v>0.00577811284911784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H15">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I15">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J15">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N15">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O15">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P15">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q15">
-        <v>7.335772078978466</v>
+        <v>15.09581129448</v>
       </c>
       <c r="R15">
-        <v>7.335772078978466</v>
+        <v>135.86230165032</v>
       </c>
       <c r="S15">
-        <v>0.000694523222034329</v>
+        <v>0.001239033954404597</v>
       </c>
       <c r="T15">
-        <v>0.000694523222034329</v>
+        <v>0.001332384725333537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.6630641109068</v>
+        <v>13.189183</v>
       </c>
       <c r="H16">
-        <v>12.6630641109068</v>
+        <v>39.567549</v>
       </c>
       <c r="I16">
-        <v>0.1867396474960424</v>
+        <v>0.1743698369812937</v>
       </c>
       <c r="J16">
-        <v>0.1867396474960424</v>
+        <v>0.1845820402324113</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N16">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O16">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P16">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q16">
-        <v>87.35949735932967</v>
+        <v>99.42327302006051</v>
       </c>
       <c r="R16">
-        <v>87.35949735932967</v>
+        <v>596.539638120363</v>
       </c>
       <c r="S16">
-        <v>0.008270867596223091</v>
+        <v>0.008160463106407485</v>
       </c>
       <c r="T16">
-        <v>0.008270867596223091</v>
+        <v>0.005850190172202899</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H17">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I17">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J17">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N17">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O17">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P17">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q17">
-        <v>2537.277960507346</v>
+        <v>2855.463035514681</v>
       </c>
       <c r="R17">
-        <v>2537.277960507346</v>
+        <v>25699.16731963213</v>
       </c>
       <c r="S17">
-        <v>0.2402199039659429</v>
+        <v>0.2343706865124656</v>
       </c>
       <c r="T17">
-        <v>0.2402199039659429</v>
+        <v>0.2520285434188949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H18">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I18">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J18">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N18">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O18">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P18">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q18">
-        <v>5.770573545550698</v>
+        <v>7.161112544542443</v>
       </c>
       <c r="R18">
-        <v>5.770573545550698</v>
+        <v>64.450012900882</v>
       </c>
       <c r="S18">
-        <v>0.0005463361304976684</v>
+        <v>0.000587769774072711</v>
       </c>
       <c r="T18">
-        <v>0.0005463361304976684</v>
+        <v>0.0006320532752175876</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H19">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I19">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J19">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N19">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O19">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P19">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q19">
-        <v>26.50156934542147</v>
+        <v>96.37824858342566</v>
       </c>
       <c r="R19">
-        <v>26.50156934542147</v>
+        <v>867.4042372508309</v>
       </c>
       <c r="S19">
-        <v>0.00250906859326952</v>
+        <v>0.00791053359977925</v>
       </c>
       <c r="T19">
-        <v>0.00250906859326952</v>
+        <v>0.008506525668740376</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H20">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I20">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J20">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N20">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O20">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P20">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q20">
-        <v>10.03864254780963</v>
+        <v>22.22402185976</v>
       </c>
       <c r="R20">
-        <v>10.03864254780963</v>
+        <v>200.01619673784</v>
       </c>
       <c r="S20">
-        <v>0.0009504207998957536</v>
+        <v>0.001824103199921536</v>
       </c>
       <c r="T20">
-        <v>0.0009504207998957536</v>
+        <v>0.00196153400991774</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.3287791388268</v>
+        <v>19.41708766666666</v>
       </c>
       <c r="H21">
-        <v>17.3287791388268</v>
+        <v>58.25126299999999</v>
       </c>
       <c r="I21">
-        <v>0.2555440041667421</v>
+        <v>0.2567069098281641</v>
       </c>
       <c r="J21">
-        <v>0.2555440041667421</v>
+        <v>0.2717412941260215</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N21">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O21">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P21">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q21">
-        <v>119.5471666383549</v>
+        <v>146.3707348921801</v>
       </c>
       <c r="R21">
-        <v>119.5471666383549</v>
+        <v>878.2244093530809</v>
       </c>
       <c r="S21">
-        <v>0.01131827467713625</v>
+        <v>0.01201381674192504</v>
       </c>
       <c r="T21">
-        <v>0.01131827467713625</v>
+        <v>0.008612637753250937</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H22">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I22">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J22">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>146.419891452268</v>
+        <v>147.0592853333333</v>
       </c>
       <c r="N22">
-        <v>146.419891452268</v>
+        <v>441.177856</v>
       </c>
       <c r="O22">
-        <v>0.9400334190944264</v>
+        <v>0.9129893958419346</v>
       </c>
       <c r="P22">
-        <v>0.9400334190944264</v>
+        <v>0.9274576550077637</v>
       </c>
       <c r="Q22">
-        <v>1675.21791036351</v>
+        <v>1846.248885930923</v>
       </c>
       <c r="R22">
-        <v>1675.21791036351</v>
+        <v>11077.49331558554</v>
       </c>
       <c r="S22">
-        <v>0.1586033110337991</v>
+        <v>0.1515364105529429</v>
       </c>
       <c r="T22">
-        <v>0.1586033110337991</v>
+        <v>0.1086356017039828</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H23">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I23">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J23">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.333005198999921</v>
+        <v>0.3688046666666667</v>
       </c>
       <c r="N23">
-        <v>0.333005198999921</v>
+        <v>1.106414</v>
       </c>
       <c r="O23">
-        <v>0.002137933669307243</v>
+        <v>0.00228965310854373</v>
       </c>
       <c r="P23">
-        <v>0.002137933669307243</v>
+        <v>0.002325937532793486</v>
       </c>
       <c r="Q23">
-        <v>3.809976008558169</v>
+        <v>4.630140853847333</v>
       </c>
       <c r="R23">
-        <v>3.809976008558169</v>
+        <v>27.780845123084</v>
       </c>
       <c r="S23">
-        <v>0.0003607141531727895</v>
+        <v>0.0003800326871925405</v>
       </c>
       <c r="T23">
-        <v>0.0003607141531727895</v>
+        <v>0.000272443299202466</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H24">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I24">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J24">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.52933851445092</v>
+        <v>4.963579</v>
       </c>
       <c r="N24">
-        <v>1.52933851445092</v>
+        <v>14.890737</v>
       </c>
       <c r="O24">
-        <v>0.009818538304003234</v>
+        <v>0.03081542917981618</v>
       </c>
       <c r="P24">
-        <v>0.009818538304003234</v>
+        <v>0.03130376520837289</v>
       </c>
       <c r="Q24">
-        <v>17.49745369297786</v>
+        <v>62.315019267287</v>
       </c>
       <c r="R24">
-        <v>17.49745369297786</v>
+        <v>373.8901156037219</v>
       </c>
       <c r="S24">
-        <v>0.001656592896481554</v>
+        <v>0.005114691965563876</v>
       </c>
       <c r="T24">
-        <v>0.001656592896481554</v>
+        <v>0.003666693946240946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H25">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I25">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J25">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.579304662341566</v>
+        <v>1.14456</v>
       </c>
       <c r="N25">
-        <v>0.579304662341566</v>
+        <v>3.43368</v>
       </c>
       <c r="O25">
-        <v>0.003719206024789395</v>
+        <v>0.007105781457704291</v>
       </c>
       <c r="P25">
-        <v>0.003719206024789395</v>
+        <v>0.007218387680924443</v>
       </c>
       <c r="Q25">
-        <v>6.627935154753487</v>
+        <v>14.36932472568</v>
       </c>
       <c r="R25">
-        <v>6.627935154753487</v>
+        <v>86.21594835407998</v>
       </c>
       <c r="S25">
-        <v>0.0006275078927690746</v>
+        <v>0.0011794053919774</v>
       </c>
       <c r="T25">
-        <v>0.0006275078927690746</v>
+        <v>0.0008455091020228624</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.441190768193</v>
+        <v>12.554453</v>
       </c>
       <c r="H26">
-        <v>11.441190768193</v>
+        <v>25.108906</v>
       </c>
       <c r="I26">
-        <v>0.1687209282267733</v>
+        <v>0.1659782810655758</v>
       </c>
       <c r="J26">
-        <v>0.1687209282267733</v>
+        <v>0.1171326810635613</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.89876451656643</v>
+        <v>7.5382435</v>
       </c>
       <c r="N26">
-        <v>6.89876451656643</v>
+        <v>15.076487</v>
       </c>
       <c r="O26">
-        <v>0.04429090290747376</v>
+        <v>0.04679974041200103</v>
       </c>
       <c r="P26">
-        <v>0.04429090290747376</v>
+        <v>0.0316942545701456</v>
       </c>
       <c r="Q26">
-        <v>78.93008089887728</v>
+        <v>94.6385237233055</v>
       </c>
       <c r="R26">
-        <v>78.93008089887728</v>
+        <v>378.554094893222</v>
       </c>
       <c r="S26">
-        <v>0.007472802250550867</v>
+        <v>0.007767740467899093</v>
       </c>
       <c r="T26">
-        <v>0.007472802250550867</v>
+        <v>0.003712433012112183</v>
       </c>
     </row>
   </sheetData>
